--- a/files/Stocklist.xlsx
+++ b/files/Stocklist.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -1037,7 +1037,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
